--- a/DE/Compiled Attendence/BT-CSE-II-B54_ECEG1012_3.xlsx
+++ b/DE/Compiled Attendence/BT-CSE-II-B54_ECEG1012_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gusindia01-my.sharepoint.com/personal/prateek_gautam_ddn_upes_ac_in/Documents/Desktop/G upessocs/Lectures/DE/Attendance/Compiled Attendence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gusindia01-my.sharepoint.com/personal/prateek_gautam_ddn_upes_ac_in/Documents/Desktop/G upessocs/Lectures/DE/Compiled Attendence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_31F5F4925B405F4B23FB3111595ED87656CDE37A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF57140-9349-4898-8F18-8A20ED7539E5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_31F5F4925B405F4B23FB3111595ED87656CDE37A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4F4656-E553-4BD0-A96B-771CA5629635}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
